--- a/Code/Results/Cases/Case_0_237/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_237/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9956084048094204</v>
+        <v>1.028514446729083</v>
       </c>
       <c r="D2">
-        <v>1.00863136992974</v>
+        <v>1.037740055646572</v>
       </c>
       <c r="E2">
-        <v>1.002643613668831</v>
+        <v>1.028467046628688</v>
       </c>
       <c r="F2">
-        <v>1.01020144965905</v>
+        <v>1.044509931311164</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041794054437984</v>
+        <v>1.03049677041457</v>
       </c>
       <c r="J2">
-        <v>1.017921265865834</v>
+        <v>1.033666341656593</v>
       </c>
       <c r="K2">
-        <v>1.019971751637089</v>
+        <v>1.040530078513809</v>
       </c>
       <c r="L2">
-        <v>1.014066241210762</v>
+        <v>1.031283779350623</v>
       </c>
       <c r="M2">
-        <v>1.021520468306228</v>
+        <v>1.0472807793711</v>
       </c>
       <c r="N2">
-        <v>1.009827936077199</v>
+        <v>1.015213766750359</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000000414066177</v>
+        <v>1.029446347452368</v>
       </c>
       <c r="D3">
-        <v>1.012609765933518</v>
+        <v>1.038641296716695</v>
       </c>
       <c r="E3">
-        <v>1.006135996293131</v>
+        <v>1.029257997927553</v>
       </c>
       <c r="F3">
-        <v>1.014770962683249</v>
+        <v>1.0455596232371</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042543642499949</v>
+        <v>1.030586719395941</v>
       </c>
       <c r="J3">
-        <v>1.020491067793764</v>
+        <v>1.034238973821894</v>
       </c>
       <c r="K3">
-        <v>1.023083805283381</v>
+        <v>1.041240947626003</v>
       </c>
       <c r="L3">
-        <v>1.016690963339866</v>
+        <v>1.031882718062072</v>
       </c>
       <c r="M3">
-        <v>1.025218271369744</v>
+        <v>1.048141101815469</v>
       </c>
       <c r="N3">
-        <v>1.010697523038459</v>
+        <v>1.015405658170271</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002785136489927</v>
+        <v>1.03004972497751</v>
       </c>
       <c r="D4">
-        <v>1.015137547777571</v>
+        <v>1.039225176865902</v>
       </c>
       <c r="E4">
-        <v>1.008356419572843</v>
+        <v>1.029770499734586</v>
       </c>
       <c r="F4">
-        <v>1.017675131301298</v>
+        <v>1.046239891208616</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043006883872784</v>
+        <v>1.030643452558911</v>
       </c>
       <c r="J4">
-        <v>1.02211786551921</v>
+        <v>1.034609272146156</v>
       </c>
       <c r="K4">
-        <v>1.025056645416452</v>
+        <v>1.041701012690289</v>
       </c>
       <c r="L4">
-        <v>1.01835502543551</v>
+        <v>1.032270320955704</v>
       </c>
       <c r="M4">
-        <v>1.027564812605635</v>
+        <v>1.048698233132253</v>
       </c>
       <c r="N4">
-        <v>1.011247751359867</v>
+        <v>1.015529685030047</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003942613637065</v>
+        <v>1.030303473811599</v>
       </c>
       <c r="D5">
-        <v>1.016189468713407</v>
+        <v>1.03947081046298</v>
       </c>
       <c r="E5">
-        <v>1.009280765053824</v>
+        <v>1.029986122553103</v>
       </c>
       <c r="F5">
-        <v>1.018883896907204</v>
+        <v>1.046526125395439</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043196500751503</v>
+        <v>1.030666950770141</v>
       </c>
       <c r="J5">
-        <v>1.022793398335861</v>
+        <v>1.034764888843104</v>
       </c>
       <c r="K5">
-        <v>1.025876548082225</v>
+        <v>1.041894443395585</v>
       </c>
       <c r="L5">
-        <v>1.019046631422687</v>
+        <v>1.032433280039457</v>
       </c>
       <c r="M5">
-        <v>1.028540605687847</v>
+        <v>1.048932556628042</v>
       </c>
       <c r="N5">
-        <v>1.011476169842928</v>
+        <v>1.015581792100737</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004136197255879</v>
+        <v>1.030346084544051</v>
       </c>
       <c r="D6">
-        <v>1.016365470560524</v>
+        <v>1.039512063379827</v>
       </c>
       <c r="E6">
-        <v>1.009435440577944</v>
+        <v>1.030022336330475</v>
       </c>
       <c r="F6">
-        <v>1.019086154317092</v>
+        <v>1.046574199974278</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043228039898998</v>
+        <v>1.030670875542361</v>
       </c>
       <c r="J6">
-        <v>1.022906339435363</v>
+        <v>1.034791014217857</v>
       </c>
       <c r="K6">
-        <v>1.026013666050488</v>
+        <v>1.041926922366525</v>
       </c>
       <c r="L6">
-        <v>1.019162294984024</v>
+        <v>1.032460642191868</v>
       </c>
       <c r="M6">
-        <v>1.028703828862196</v>
+        <v>1.048971906728609</v>
       </c>
       <c r="N6">
-        <v>1.011514354757383</v>
+        <v>1.015590539113086</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002800654091311</v>
+        <v>1.030053115233641</v>
       </c>
       <c r="D7">
-        <v>1.015151645385853</v>
+        <v>1.039228458366126</v>
       </c>
       <c r="E7">
-        <v>1.008368806162023</v>
+        <v>1.029773380242502</v>
       </c>
       <c r="F7">
-        <v>1.017691330036564</v>
+        <v>1.046243714904774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043009437586538</v>
+        <v>1.03064376792855</v>
       </c>
       <c r="J7">
-        <v>1.022126924593598</v>
+        <v>1.034611351728126</v>
       </c>
       <c r="K7">
-        <v>1.025067637850443</v>
+        <v>1.041703597246113</v>
       </c>
       <c r="L7">
-        <v>1.01836429768826</v>
+        <v>1.032272498381697</v>
       </c>
       <c r="M7">
-        <v>1.027577892746472</v>
+        <v>1.048701363761124</v>
       </c>
       <c r="N7">
-        <v>1.011250814775974</v>
+        <v>1.015530381420636</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9971048416630075</v>
+        <v>1.02882930862585</v>
       </c>
       <c r="D8">
-        <v>1.009985748564271</v>
+        <v>1.038044485093373</v>
       </c>
       <c r="E8">
-        <v>1.003832224833732</v>
+        <v>1.028734205866633</v>
       </c>
       <c r="F8">
-        <v>1.011756908561872</v>
+        <v>1.044864462111039</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042051947518139</v>
+        <v>1.03052747311762</v>
       </c>
       <c r="J8">
-        <v>1.018797360937451</v>
+        <v>1.033859913049992</v>
       </c>
       <c r="K8">
-        <v>1.021032134353535</v>
+        <v>1.040770301783563</v>
       </c>
       <c r="L8">
-        <v>1.014960535224674</v>
+        <v>1.031486182628697</v>
       </c>
       <c r="M8">
-        <v>1.022779945683068</v>
+        <v>1.047571436541702</v>
       </c>
       <c r="N8">
-        <v>1.010124447152592</v>
+        <v>1.015278646060631</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9866074693482217</v>
+        <v>1.026675722770029</v>
       </c>
       <c r="D9">
-        <v>1.000508801202494</v>
+        <v>1.035963718661752</v>
       </c>
       <c r="E9">
-        <v>0.9955219955347128</v>
+        <v>1.026908494500353</v>
       </c>
       <c r="F9">
-        <v>1.000875473030827</v>
+        <v>1.04244211266595</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040193655833067</v>
+        <v>1.030311312807202</v>
       </c>
       <c r="J9">
-        <v>1.012642180763953</v>
+        <v>1.032534039346529</v>
       </c>
       <c r="K9">
-        <v>1.013593628852369</v>
+        <v>1.039126414798383</v>
       </c>
       <c r="L9">
-        <v>1.008688145462238</v>
+        <v>1.030101017984645</v>
       </c>
       <c r="M9">
-        <v>1.013954362247125</v>
+        <v>1.045583817667021</v>
       </c>
       <c r="N9">
-        <v>1.008040295386572</v>
+        <v>1.014834002486229</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9792660067616819</v>
+        <v>1.025242016266029</v>
       </c>
       <c r="D10">
-        <v>0.9939129939876032</v>
+        <v>1.034580342940987</v>
       </c>
       <c r="E10">
-        <v>0.9897476494652953</v>
+        <v>1.025695094819054</v>
       </c>
       <c r="F10">
-        <v>0.9933043575888176</v>
+        <v>1.040832705982235</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038833547248581</v>
+        <v>1.030159683900419</v>
       </c>
       <c r="J10">
-        <v>1.008327111511567</v>
+        <v>1.03164900714255</v>
       </c>
       <c r="K10">
-        <v>1.008393027863774</v>
+        <v>1.038031021462746</v>
       </c>
       <c r="L10">
-        <v>1.004304513864126</v>
+        <v>1.029177920205942</v>
       </c>
       <c r="M10">
-        <v>1.0077955655066</v>
+        <v>1.04426112626484</v>
       </c>
       <c r="N10">
-        <v>1.006578153616347</v>
+        <v>1.014536886829808</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9759975525241397</v>
+        <v>1.024621695310981</v>
       </c>
       <c r="D11">
-        <v>0.9909846680037998</v>
+        <v>1.033982242876078</v>
       </c>
       <c r="E11">
-        <v>0.9871865437514279</v>
+        <v>1.025170583225026</v>
       </c>
       <c r="F11">
-        <v>0.9899432046931538</v>
+        <v>1.040137131692903</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038214333337557</v>
+        <v>1.030092249231479</v>
       </c>
       <c r="J11">
-        <v>1.006404111821329</v>
+        <v>1.031265525050257</v>
       </c>
       <c r="K11">
-        <v>1.006078626750244</v>
+        <v>1.037556842746133</v>
       </c>
       <c r="L11">
-        <v>1.002354217334221</v>
+        <v>1.02877830304457</v>
       </c>
       <c r="M11">
-        <v>1.005057302625595</v>
+        <v>1.043688965667505</v>
       </c>
       <c r="N11">
-        <v>1.005926355837597</v>
+        <v>1.014408074142852</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9747693020655709</v>
+        <v>1.024391353970046</v>
       </c>
       <c r="D12">
-        <v>0.9898855110363591</v>
+        <v>1.033760219896664</v>
       </c>
       <c r="E12">
-        <v>0.986225627375676</v>
+        <v>1.024975892559906</v>
       </c>
       <c r="F12">
-        <v>0.988681580871355</v>
+        <v>1.03987896221835</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037979641088076</v>
+        <v>1.030066934305897</v>
       </c>
       <c r="J12">
-        <v>1.005681230831825</v>
+        <v>1.031123044954082</v>
       </c>
       <c r="K12">
-        <v>1.005209088474886</v>
+        <v>1.03738073274703</v>
       </c>
       <c r="L12">
-        <v>1.00162156769563</v>
+        <v>1.028629881976161</v>
       </c>
       <c r="M12">
-        <v>1.004028884643728</v>
+        <v>1.043476526915551</v>
       </c>
       <c r="N12">
-        <v>1.005681311182421</v>
+        <v>1.014360203743372</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9750334211540939</v>
+        <v>1.024440759630658</v>
       </c>
       <c r="D13">
-        <v>0.9901218117263799</v>
+        <v>1.03380783831491</v>
       </c>
       <c r="E13">
-        <v>0.9864321899741695</v>
+        <v>1.025017648179833</v>
       </c>
       <c r="F13">
-        <v>0.9889528099474947</v>
+        <v>1.039934331479677</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038030197894194</v>
+        <v>1.030072376503644</v>
       </c>
       <c r="J13">
-        <v>1.005836686819042</v>
+        <v>1.031153609113443</v>
       </c>
       <c r="K13">
-        <v>1.005396061870631</v>
+        <v>1.037418507969534</v>
       </c>
       <c r="L13">
-        <v>1.001779102125915</v>
+        <v>1.028661718125596</v>
       </c>
       <c r="M13">
-        <v>1.004250004937283</v>
+        <v>1.043522091788207</v>
       </c>
       <c r="N13">
-        <v>1.005734009249494</v>
+        <v>1.0143704731703</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9758963191584655</v>
+        <v>1.024602653719933</v>
       </c>
       <c r="D14">
-        <v>0.9908940483661471</v>
+        <v>1.033963887565013</v>
       </c>
       <c r="E14">
-        <v>0.987107312966984</v>
+        <v>1.025154487245972</v>
       </c>
       <c r="F14">
-        <v>0.9898391907886154</v>
+        <v>1.040115787282658</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03819503009217</v>
+        <v>1.030090162129331</v>
       </c>
       <c r="J14">
-        <v>1.00634453595334</v>
+        <v>1.031253748366487</v>
       </c>
       <c r="K14">
-        <v>1.006006954587572</v>
+        <v>1.037542285002766</v>
       </c>
       <c r="L14">
-        <v>1.002293826356714</v>
+        <v>1.02876603421053</v>
       </c>
       <c r="M14">
-        <v>1.004972527323348</v>
+        <v>1.043671403629939</v>
       </c>
       <c r="N14">
-        <v>1.005906161094497</v>
+        <v>1.014404117640746</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.976426074101354</v>
+        <v>1.024702411774121</v>
       </c>
       <c r="D15">
-        <v>0.9913683139526454</v>
+        <v>1.03406005298209</v>
       </c>
       <c r="E15">
-        <v>0.9875219906166474</v>
+        <v>1.025238816410404</v>
       </c>
       <c r="F15">
-        <v>0.9903835560686354</v>
+        <v>1.040227614432152</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038295963015848</v>
+        <v>1.030101085116368</v>
       </c>
       <c r="J15">
-        <v>1.006656287497679</v>
+        <v>1.031315442486557</v>
       </c>
       <c r="K15">
-        <v>1.006382023547149</v>
+        <v>1.037618550942038</v>
       </c>
       <c r="L15">
-        <v>1.002609863342929</v>
+        <v>1.028830308748998</v>
       </c>
       <c r="M15">
-        <v>1.005416181493321</v>
+        <v>1.043763411164473</v>
       </c>
       <c r="N15">
-        <v>1.00601183614102</v>
+        <v>1.01442484398846</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9794809739749323</v>
+        <v>1.025283195182689</v>
       </c>
       <c r="D16">
-        <v>0.9941057651152518</v>
+        <v>1.034620056162102</v>
       </c>
       <c r="E16">
-        <v>0.9899163011564821</v>
+        <v>1.025729923967709</v>
       </c>
       <c r="F16">
-        <v>0.9935256227960743</v>
+        <v>1.040878896635535</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038873992810311</v>
+        <v>1.03016412189132</v>
       </c>
       <c r="J16">
-        <v>1.008453552055561</v>
+        <v>1.031674452240397</v>
       </c>
       <c r="K16">
-        <v>1.008545270224149</v>
+        <v>1.038062494045953</v>
       </c>
       <c r="L16">
-        <v>1.004432817334457</v>
+        <v>1.029204443466035</v>
       </c>
       <c r="M16">
-        <v>1.007975741681296</v>
+        <v>1.044299110848311</v>
       </c>
       <c r="N16">
-        <v>1.006621006696194</v>
+        <v>1.014545432370164</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9813727451551749</v>
+        <v>1.025647635297492</v>
       </c>
       <c r="D17">
-        <v>0.9958031393327498</v>
+        <v>1.034971576031985</v>
       </c>
       <c r="E17">
-        <v>0.991401590662354</v>
+        <v>1.026038224235251</v>
       </c>
       <c r="F17">
-        <v>0.9954739077673437</v>
+        <v>1.041287780073097</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039228373753246</v>
+        <v>1.030203187425615</v>
       </c>
       <c r="J17">
-        <v>1.009566052250757</v>
+        <v>1.031899581310102</v>
       </c>
       <c r="K17">
-        <v>1.009885157061689</v>
+        <v>1.038341004349006</v>
       </c>
       <c r="L17">
-        <v>1.005562079704473</v>
+        <v>1.0294391531463</v>
       </c>
       <c r="M17">
-        <v>1.009561763920388</v>
+        <v>1.044635295361036</v>
       </c>
       <c r="N17">
-        <v>1.006998031959838</v>
+        <v>1.014621031783343</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9824675958827341</v>
+        <v>1.025860253636443</v>
       </c>
       <c r="D18">
-        <v>0.9967862547855513</v>
+        <v>1.035176699419575</v>
       </c>
       <c r="E18">
-        <v>0.9922621047488082</v>
+        <v>1.026218137167371</v>
       </c>
       <c r="F18">
-        <v>0.9966023692524026</v>
+        <v>1.041526401133697</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039432166724066</v>
+        <v>1.030225802072797</v>
       </c>
       <c r="J18">
-        <v>1.010209720173736</v>
+        <v>1.032030870401732</v>
       </c>
       <c r="K18">
-        <v>1.010660693201616</v>
+        <v>1.038503467543039</v>
       </c>
       <c r="L18">
-        <v>1.006215754604395</v>
+        <v>1.029576063975925</v>
       </c>
       <c r="M18">
-        <v>1.010480009089401</v>
+        <v>1.04483144136713</v>
       </c>
       <c r="N18">
-        <v>1.007216151331298</v>
+        <v>1.014665112214725</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9828394769477632</v>
+        <v>1.025932758871351</v>
       </c>
       <c r="D19">
-        <v>0.9971203126935315</v>
+        <v>1.035246656049354</v>
       </c>
       <c r="E19">
-        <v>0.9925545428864025</v>
+        <v>1.026279497477234</v>
       </c>
       <c r="F19">
-        <v>0.9969858191690824</v>
+        <v>1.041607786134075</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039501165114563</v>
+        <v>1.030233483958762</v>
       </c>
       <c r="J19">
-        <v>1.010428318074944</v>
+        <v>1.032075632341178</v>
       </c>
       <c r="K19">
-        <v>1.010924127680437</v>
+        <v>1.038558865442839</v>
       </c>
       <c r="L19">
-        <v>1.006437803290071</v>
+        <v>1.029622748467216</v>
       </c>
       <c r="M19">
-        <v>1.010791960916481</v>
+        <v>1.044898331430111</v>
       </c>
       <c r="N19">
-        <v>1.007290224105457</v>
+        <v>1.014680139875207</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.981170669476838</v>
+        <v>1.025608529497406</v>
       </c>
       <c r="D20">
-        <v>0.9956217484792973</v>
+        <v>1.034933852187085</v>
       </c>
       <c r="E20">
-        <v>0.9912428395409358</v>
+        <v>1.026005137567132</v>
       </c>
       <c r="F20">
-        <v>0.995265701430337</v>
+        <v>1.04124389768156</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039190654154552</v>
+        <v>1.030199013811208</v>
       </c>
       <c r="J20">
-        <v>1.00944723574223</v>
+        <v>1.031875429659164</v>
       </c>
       <c r="K20">
-        <v>1.009742023537175</v>
+        <v>1.038311121493402</v>
       </c>
       <c r="L20">
-        <v>1.0054414409164</v>
+        <v>1.029413970117703</v>
       </c>
       <c r="M20">
-        <v>1.009392311752196</v>
+        <v>1.044599220220547</v>
       </c>
       <c r="N20">
-        <v>1.006957767105465</v>
+        <v>1.014612922274934</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9756426154828418</v>
+        <v>1.024554977910425</v>
       </c>
       <c r="D21">
-        <v>0.9906669647898416</v>
+        <v>1.033917931130867</v>
       </c>
       <c r="E21">
-        <v>0.9869087752807074</v>
+        <v>1.025114187778707</v>
       </c>
       <c r="F21">
-        <v>0.9895785423759029</v>
+        <v>1.040062347602924</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0381466217188</v>
+        <v>1.03008493206379</v>
       </c>
       <c r="J21">
-        <v>1.006195227594217</v>
+        <v>1.031224260887967</v>
       </c>
       <c r="K21">
-        <v>1.005827338260719</v>
+        <v>1.037505835161477</v>
       </c>
       <c r="L21">
-        <v>1.002142483125604</v>
+        <v>1.028735315314358</v>
       </c>
       <c r="M21">
-        <v>1.004760079331563</v>
+        <v>1.043627432599655</v>
       </c>
       <c r="N21">
-        <v>1.005855548868833</v>
+        <v>1.014394210832295</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9720843367965645</v>
+        <v>1.023892993779286</v>
       </c>
       <c r="D22">
-        <v>0.9874851519166834</v>
+        <v>1.03327998034149</v>
       </c>
       <c r="E22">
-        <v>0.9841279302288739</v>
+        <v>1.024554801492041</v>
       </c>
       <c r="F22">
-        <v>0.9859263814651448</v>
+        <v>1.03932060503485</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037462993632648</v>
+        <v>1.030011661615347</v>
       </c>
       <c r="J22">
-        <v>1.004100625317911</v>
+        <v>1.030814627135006</v>
       </c>
       <c r="K22">
-        <v>1.003308675048892</v>
+        <v>1.036999642185377</v>
       </c>
       <c r="L22">
-        <v>1.000020512425196</v>
+        <v>1.028308702701194</v>
       </c>
       <c r="M22">
-        <v>1.001781891797413</v>
+        <v>1.043016935987242</v>
       </c>
       <c r="N22">
-        <v>1.005145470736434</v>
+        <v>1.014256561713878</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9739787378416722</v>
+        <v>1.024243883467668</v>
       </c>
       <c r="D23">
-        <v>0.9891784043586739</v>
+        <v>1.033618093983828</v>
       </c>
       <c r="E23">
-        <v>0.9856075700971898</v>
+        <v>1.02485126750195</v>
       </c>
       <c r="F23">
-        <v>0.9878699514152924</v>
+        <v>1.039713707929667</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037828025646106</v>
+        <v>1.030050649735237</v>
       </c>
       <c r="J23">
-        <v>1.005215887214194</v>
+        <v>1.0310318021158</v>
       </c>
       <c r="K23">
-        <v>1.004649469236951</v>
+        <v>1.03726797271903</v>
       </c>
       <c r="L23">
-        <v>1.001150074898665</v>
+        <v>1.02853484977429</v>
       </c>
       <c r="M23">
-        <v>1.003367115018711</v>
+        <v>1.043340523603286</v>
       </c>
       <c r="N23">
-        <v>1.005523560872521</v>
+        <v>1.014329544941869</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9812620052608083</v>
+        <v>1.025626199581268</v>
       </c>
       <c r="D24">
-        <v>0.9957037325845657</v>
+        <v>1.034950897697618</v>
       </c>
       <c r="E24">
-        <v>0.9913145903218681</v>
+        <v>1.026020087740801</v>
       </c>
       <c r="F24">
-        <v>0.9953598053985638</v>
+        <v>1.041263725855315</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039207707004578</v>
+        <v>1.030200900218223</v>
       </c>
       <c r="J24">
-        <v>1.00950093995566</v>
+        <v>1.031886342827589</v>
       </c>
       <c r="K24">
-        <v>1.009806717914368</v>
+        <v>1.038324624229938</v>
       </c>
       <c r="L24">
-        <v>1.005495967830002</v>
+        <v>1.029425349217712</v>
       </c>
       <c r="M24">
-        <v>1.009468901035036</v>
+        <v>1.044615520852996</v>
       </c>
       <c r="N24">
-        <v>1.006975966591626</v>
+        <v>1.014616586660413</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9893791960630429</v>
+        <v>1.02723212484348</v>
       </c>
       <c r="D25">
-        <v>1.003005754882667</v>
+        <v>1.036500981916222</v>
       </c>
       <c r="E25">
-        <v>0.9977100025561209</v>
+        <v>1.027379831028951</v>
       </c>
       <c r="F25">
-        <v>1.003741989457166</v>
+        <v>1.043067384808477</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040694957377804</v>
+        <v>1.030368523513698</v>
       </c>
       <c r="J25">
-        <v>1.014269356519405</v>
+        <v>1.032877010305226</v>
       </c>
       <c r="K25">
-        <v>1.015557588888263</v>
+        <v>1.039551309841276</v>
       </c>
       <c r="L25">
-        <v>1.010343972107148</v>
+        <v>1.030459059784129</v>
       </c>
       <c r="M25">
-        <v>1.016282492268299</v>
+        <v>1.046097248563448</v>
       </c>
       <c r="N25">
-        <v>1.008591457355201</v>
+        <v>1.014949076125733</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_237/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_237/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028514446729083</v>
+        <v>0.9956084048094216</v>
       </c>
       <c r="D2">
-        <v>1.037740055646572</v>
+        <v>1.008631369929741</v>
       </c>
       <c r="E2">
-        <v>1.028467046628688</v>
+        <v>1.002643613668832</v>
       </c>
       <c r="F2">
-        <v>1.044509931311164</v>
+        <v>1.010201449659051</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03049677041457</v>
+        <v>1.041794054437985</v>
       </c>
       <c r="J2">
-        <v>1.033666341656593</v>
+        <v>1.017921265865835</v>
       </c>
       <c r="K2">
-        <v>1.040530078513809</v>
+        <v>1.01997175163709</v>
       </c>
       <c r="L2">
-        <v>1.031283779350623</v>
+        <v>1.014066241210763</v>
       </c>
       <c r="M2">
-        <v>1.0472807793711</v>
+        <v>1.021520468306229</v>
       </c>
       <c r="N2">
-        <v>1.015213766750359</v>
+        <v>1.0098279360772</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029446347452368</v>
+        <v>1.000000414066177</v>
       </c>
       <c r="D3">
-        <v>1.038641296716695</v>
+        <v>1.012609765933518</v>
       </c>
       <c r="E3">
-        <v>1.029257997927553</v>
+        <v>1.00613599629313</v>
       </c>
       <c r="F3">
-        <v>1.0455596232371</v>
+        <v>1.014770962683248</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030586719395941</v>
+        <v>1.042543642499948</v>
       </c>
       <c r="J3">
-        <v>1.034238973821894</v>
+        <v>1.020491067793764</v>
       </c>
       <c r="K3">
-        <v>1.041240947626003</v>
+        <v>1.023083805283381</v>
       </c>
       <c r="L3">
-        <v>1.031882718062072</v>
+        <v>1.016690963339865</v>
       </c>
       <c r="M3">
-        <v>1.048141101815469</v>
+        <v>1.025218271369743</v>
       </c>
       <c r="N3">
-        <v>1.015405658170271</v>
+        <v>1.010697523038459</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03004972497751</v>
+        <v>1.002785136489927</v>
       </c>
       <c r="D4">
-        <v>1.039225176865902</v>
+        <v>1.01513754777757</v>
       </c>
       <c r="E4">
-        <v>1.029770499734586</v>
+        <v>1.008356419572842</v>
       </c>
       <c r="F4">
-        <v>1.046239891208616</v>
+        <v>1.017675131301297</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030643452558911</v>
+        <v>1.043006883872784</v>
       </c>
       <c r="J4">
-        <v>1.034609272146156</v>
+        <v>1.02211786551921</v>
       </c>
       <c r="K4">
-        <v>1.041701012690289</v>
+        <v>1.025056645416451</v>
       </c>
       <c r="L4">
-        <v>1.032270320955704</v>
+        <v>1.01835502543551</v>
       </c>
       <c r="M4">
-        <v>1.048698233132253</v>
+        <v>1.027564812605634</v>
       </c>
       <c r="N4">
-        <v>1.015529685030047</v>
+        <v>1.011247751359867</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030303473811599</v>
+        <v>1.003942613637064</v>
       </c>
       <c r="D5">
-        <v>1.03947081046298</v>
+        <v>1.016189468713406</v>
       </c>
       <c r="E5">
-        <v>1.029986122553103</v>
+        <v>1.009280765053822</v>
       </c>
       <c r="F5">
-        <v>1.046526125395439</v>
+        <v>1.018883896907203</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030666950770141</v>
+        <v>1.043196500751502</v>
       </c>
       <c r="J5">
-        <v>1.034764888843104</v>
+        <v>1.02279339833586</v>
       </c>
       <c r="K5">
-        <v>1.041894443395585</v>
+        <v>1.025876548082225</v>
       </c>
       <c r="L5">
-        <v>1.032433280039457</v>
+        <v>1.019046631422686</v>
       </c>
       <c r="M5">
-        <v>1.048932556628042</v>
+        <v>1.028540605687846</v>
       </c>
       <c r="N5">
-        <v>1.015581792100737</v>
+        <v>1.011476169842927</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030346084544051</v>
+        <v>1.004136197255879</v>
       </c>
       <c r="D6">
-        <v>1.039512063379827</v>
+        <v>1.016365470560524</v>
       </c>
       <c r="E6">
-        <v>1.030022336330475</v>
+        <v>1.009435440577943</v>
       </c>
       <c r="F6">
-        <v>1.046574199974278</v>
+        <v>1.019086154317091</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030670875542361</v>
+        <v>1.043228039898998</v>
       </c>
       <c r="J6">
-        <v>1.034791014217857</v>
+        <v>1.022906339435362</v>
       </c>
       <c r="K6">
-        <v>1.041926922366525</v>
+        <v>1.026013666050487</v>
       </c>
       <c r="L6">
-        <v>1.032460642191868</v>
+        <v>1.019162294984024</v>
       </c>
       <c r="M6">
-        <v>1.048971906728609</v>
+        <v>1.028703828862196</v>
       </c>
       <c r="N6">
-        <v>1.015590539113086</v>
+        <v>1.011514354757383</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030053115233641</v>
+        <v>1.002800654091311</v>
       </c>
       <c r="D7">
-        <v>1.039228458366126</v>
+        <v>1.015151645385854</v>
       </c>
       <c r="E7">
-        <v>1.029773380242502</v>
+        <v>1.008368806162023</v>
       </c>
       <c r="F7">
-        <v>1.046243714904774</v>
+        <v>1.017691330036565</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03064376792855</v>
+        <v>1.043009437586538</v>
       </c>
       <c r="J7">
-        <v>1.034611351728126</v>
+        <v>1.022126924593599</v>
       </c>
       <c r="K7">
-        <v>1.041703597246113</v>
+        <v>1.025067637850444</v>
       </c>
       <c r="L7">
-        <v>1.032272498381697</v>
+        <v>1.01836429768826</v>
       </c>
       <c r="M7">
-        <v>1.048701363761124</v>
+        <v>1.027577892746473</v>
       </c>
       <c r="N7">
-        <v>1.015530381420636</v>
+        <v>1.011250814775974</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02882930862585</v>
+        <v>0.9971048416630074</v>
       </c>
       <c r="D8">
-        <v>1.038044485093373</v>
+        <v>1.00998574856427</v>
       </c>
       <c r="E8">
-        <v>1.028734205866633</v>
+        <v>1.003832224833731</v>
       </c>
       <c r="F8">
-        <v>1.044864462111039</v>
+        <v>1.011756908561872</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03052747311762</v>
+        <v>1.042051947518139</v>
       </c>
       <c r="J8">
-        <v>1.033859913049992</v>
+        <v>1.018797360937451</v>
       </c>
       <c r="K8">
-        <v>1.040770301783563</v>
+        <v>1.021032134353534</v>
       </c>
       <c r="L8">
-        <v>1.031486182628697</v>
+        <v>1.014960535224674</v>
       </c>
       <c r="M8">
-        <v>1.047571436541702</v>
+        <v>1.022779945683068</v>
       </c>
       <c r="N8">
-        <v>1.015278646060631</v>
+        <v>1.010124447152592</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026675722770029</v>
+        <v>0.9866074693482213</v>
       </c>
       <c r="D9">
-        <v>1.035963718661752</v>
+        <v>1.000508801202493</v>
       </c>
       <c r="E9">
-        <v>1.026908494500353</v>
+        <v>0.9955219955347121</v>
       </c>
       <c r="F9">
-        <v>1.04244211266595</v>
+        <v>1.000875473030827</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030311312807202</v>
+        <v>1.040193655833067</v>
       </c>
       <c r="J9">
-        <v>1.032534039346529</v>
+        <v>1.012642180763953</v>
       </c>
       <c r="K9">
-        <v>1.039126414798383</v>
+        <v>1.013593628852368</v>
       </c>
       <c r="L9">
-        <v>1.030101017984645</v>
+        <v>1.008688145462237</v>
       </c>
       <c r="M9">
-        <v>1.045583817667021</v>
+        <v>1.013954362247125</v>
       </c>
       <c r="N9">
-        <v>1.014834002486229</v>
+        <v>1.008040295386571</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025242016266029</v>
+        <v>0.9792660067616817</v>
       </c>
       <c r="D10">
-        <v>1.034580342940987</v>
+        <v>0.9939129939876032</v>
       </c>
       <c r="E10">
-        <v>1.025695094819054</v>
+        <v>0.9897476494652951</v>
       </c>
       <c r="F10">
-        <v>1.040832705982235</v>
+        <v>0.9933043575888175</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030159683900419</v>
+        <v>1.038833547248581</v>
       </c>
       <c r="J10">
-        <v>1.03164900714255</v>
+        <v>1.008327111511567</v>
       </c>
       <c r="K10">
-        <v>1.038031021462746</v>
+        <v>1.008393027863774</v>
       </c>
       <c r="L10">
-        <v>1.029177920205942</v>
+        <v>1.004304513864126</v>
       </c>
       <c r="M10">
-        <v>1.04426112626484</v>
+        <v>1.0077955655066</v>
       </c>
       <c r="N10">
-        <v>1.014536886829808</v>
+        <v>1.006578153616347</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024621695310981</v>
+        <v>0.9759975525241406</v>
       </c>
       <c r="D11">
-        <v>1.033982242876078</v>
+        <v>0.9909846680038007</v>
       </c>
       <c r="E11">
-        <v>1.025170583225026</v>
+        <v>0.9871865437514292</v>
       </c>
       <c r="F11">
-        <v>1.040137131692903</v>
+        <v>0.9899432046931549</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030092249231479</v>
+        <v>1.038214333337558</v>
       </c>
       <c r="J11">
-        <v>1.031265525050257</v>
+        <v>1.00640411182133</v>
       </c>
       <c r="K11">
-        <v>1.037556842746133</v>
+        <v>1.006078626750245</v>
       </c>
       <c r="L11">
-        <v>1.02877830304457</v>
+        <v>1.002354217334222</v>
       </c>
       <c r="M11">
-        <v>1.043688965667505</v>
+        <v>1.005057302625596</v>
       </c>
       <c r="N11">
-        <v>1.014408074142852</v>
+        <v>1.005926355837598</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024391353970046</v>
+        <v>0.974769302065571</v>
       </c>
       <c r="D12">
-        <v>1.033760219896664</v>
+        <v>0.9898855110363597</v>
       </c>
       <c r="E12">
-        <v>1.024975892559906</v>
+        <v>0.9862256273756762</v>
       </c>
       <c r="F12">
-        <v>1.03987896221835</v>
+        <v>0.9886815808713555</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030066934305897</v>
+        <v>1.037979641088076</v>
       </c>
       <c r="J12">
-        <v>1.031123044954082</v>
+        <v>1.005681230831825</v>
       </c>
       <c r="K12">
-        <v>1.03738073274703</v>
+        <v>1.005209088474887</v>
       </c>
       <c r="L12">
-        <v>1.028629881976161</v>
+        <v>1.00162156769563</v>
       </c>
       <c r="M12">
-        <v>1.043476526915551</v>
+        <v>1.004028884643728</v>
       </c>
       <c r="N12">
-        <v>1.014360203743372</v>
+        <v>1.005681311182421</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024440759630658</v>
+        <v>0.975033421154094</v>
       </c>
       <c r="D13">
-        <v>1.03380783831491</v>
+        <v>0.9901218117263797</v>
       </c>
       <c r="E13">
-        <v>1.025017648179833</v>
+        <v>0.9864321899741696</v>
       </c>
       <c r="F13">
-        <v>1.039934331479677</v>
+        <v>0.9889528099474941</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030072376503644</v>
+        <v>1.038030197894194</v>
       </c>
       <c r="J13">
-        <v>1.031153609113443</v>
+        <v>1.005836686819042</v>
       </c>
       <c r="K13">
-        <v>1.037418507969534</v>
+        <v>1.005396061870631</v>
       </c>
       <c r="L13">
-        <v>1.028661718125596</v>
+        <v>1.001779102125915</v>
       </c>
       <c r="M13">
-        <v>1.043522091788207</v>
+        <v>1.004250004937283</v>
       </c>
       <c r="N13">
-        <v>1.0143704731703</v>
+        <v>1.005734009249494</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024602653719933</v>
+        <v>0.9758963191584654</v>
       </c>
       <c r="D14">
-        <v>1.033963887565013</v>
+        <v>0.9908940483661474</v>
       </c>
       <c r="E14">
-        <v>1.025154487245972</v>
+        <v>0.987107312966984</v>
       </c>
       <c r="F14">
-        <v>1.040115787282658</v>
+        <v>0.9898391907886156</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030090162129331</v>
+        <v>1.03819503009217</v>
       </c>
       <c r="J14">
-        <v>1.031253748366487</v>
+        <v>1.00634453595334</v>
       </c>
       <c r="K14">
-        <v>1.037542285002766</v>
+        <v>1.006006954587572</v>
       </c>
       <c r="L14">
-        <v>1.02876603421053</v>
+        <v>1.002293826356714</v>
       </c>
       <c r="M14">
-        <v>1.043671403629939</v>
+        <v>1.004972527323349</v>
       </c>
       <c r="N14">
-        <v>1.014404117640746</v>
+        <v>1.005906161094497</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024702411774121</v>
+        <v>0.9764260741013535</v>
       </c>
       <c r="D15">
-        <v>1.03406005298209</v>
+        <v>0.9913683139526449</v>
       </c>
       <c r="E15">
-        <v>1.025238816410404</v>
+        <v>0.9875219906166469</v>
       </c>
       <c r="F15">
-        <v>1.040227614432152</v>
+        <v>0.9903835560686348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030101085116368</v>
+        <v>1.038295963015848</v>
       </c>
       <c r="J15">
-        <v>1.031315442486557</v>
+        <v>1.006656287497678</v>
       </c>
       <c r="K15">
-        <v>1.037618550942038</v>
+        <v>1.006382023547148</v>
       </c>
       <c r="L15">
-        <v>1.028830308748998</v>
+        <v>1.002609863342928</v>
       </c>
       <c r="M15">
-        <v>1.043763411164473</v>
+        <v>1.005416181493321</v>
       </c>
       <c r="N15">
-        <v>1.01442484398846</v>
+        <v>1.00601183614102</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025283195182689</v>
+        <v>0.9794809739749319</v>
       </c>
       <c r="D16">
-        <v>1.034620056162102</v>
+        <v>0.9941057651152515</v>
       </c>
       <c r="E16">
-        <v>1.025729923967709</v>
+        <v>0.9899163011564813</v>
       </c>
       <c r="F16">
-        <v>1.040878896635535</v>
+        <v>0.9935256227960738</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03016412189132</v>
+        <v>1.038873992810311</v>
       </c>
       <c r="J16">
-        <v>1.031674452240397</v>
+        <v>1.008453552055561</v>
       </c>
       <c r="K16">
-        <v>1.038062494045953</v>
+        <v>1.008545270224148</v>
       </c>
       <c r="L16">
-        <v>1.029204443466035</v>
+        <v>1.004432817334456</v>
       </c>
       <c r="M16">
-        <v>1.044299110848311</v>
+        <v>1.007975741681295</v>
       </c>
       <c r="N16">
-        <v>1.014545432370164</v>
+        <v>1.006621006696194</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025647635297492</v>
+        <v>0.9813727451551739</v>
       </c>
       <c r="D17">
-        <v>1.034971576031985</v>
+        <v>0.995803139332749</v>
       </c>
       <c r="E17">
-        <v>1.026038224235251</v>
+        <v>0.991401590662353</v>
       </c>
       <c r="F17">
-        <v>1.041287780073097</v>
+        <v>0.9954739077673427</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030203187425615</v>
+        <v>1.039228373753246</v>
       </c>
       <c r="J17">
-        <v>1.031899581310102</v>
+        <v>1.009566052250756</v>
       </c>
       <c r="K17">
-        <v>1.038341004349006</v>
+        <v>1.009885157061688</v>
       </c>
       <c r="L17">
-        <v>1.0294391531463</v>
+        <v>1.005562079704472</v>
       </c>
       <c r="M17">
-        <v>1.044635295361036</v>
+        <v>1.009561763920387</v>
       </c>
       <c r="N17">
-        <v>1.014621031783343</v>
+        <v>1.006998031959838</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025860253636443</v>
+        <v>0.9824675958827341</v>
       </c>
       <c r="D18">
-        <v>1.035176699419575</v>
+        <v>0.9967862547855511</v>
       </c>
       <c r="E18">
-        <v>1.026218137167371</v>
+        <v>0.9922621047488082</v>
       </c>
       <c r="F18">
-        <v>1.041526401133697</v>
+        <v>0.9966023692524026</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030225802072797</v>
+        <v>1.039432166724066</v>
       </c>
       <c r="J18">
-        <v>1.032030870401732</v>
+        <v>1.010209720173736</v>
       </c>
       <c r="K18">
-        <v>1.038503467543039</v>
+        <v>1.010660693201616</v>
       </c>
       <c r="L18">
-        <v>1.029576063975925</v>
+        <v>1.006215754604395</v>
       </c>
       <c r="M18">
-        <v>1.04483144136713</v>
+        <v>1.010480009089401</v>
       </c>
       <c r="N18">
-        <v>1.014665112214725</v>
+        <v>1.007216151331298</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025932758871351</v>
+        <v>0.9828394769477633</v>
       </c>
       <c r="D19">
-        <v>1.035246656049354</v>
+        <v>0.9971203126935315</v>
       </c>
       <c r="E19">
-        <v>1.026279497477234</v>
+        <v>0.9925545428864025</v>
       </c>
       <c r="F19">
-        <v>1.041607786134075</v>
+        <v>0.9969858191690824</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030233483958762</v>
+        <v>1.039501165114563</v>
       </c>
       <c r="J19">
-        <v>1.032075632341178</v>
+        <v>1.010428318074944</v>
       </c>
       <c r="K19">
-        <v>1.038558865442839</v>
+        <v>1.010924127680437</v>
       </c>
       <c r="L19">
-        <v>1.029622748467216</v>
+        <v>1.006437803290071</v>
       </c>
       <c r="M19">
-        <v>1.044898331430111</v>
+        <v>1.010791960916481</v>
       </c>
       <c r="N19">
-        <v>1.014680139875207</v>
+        <v>1.007290224105457</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025608529497406</v>
+        <v>0.9811706694768372</v>
       </c>
       <c r="D20">
-        <v>1.034933852187085</v>
+        <v>0.9956217484792962</v>
       </c>
       <c r="E20">
-        <v>1.026005137567132</v>
+        <v>0.9912428395409351</v>
       </c>
       <c r="F20">
-        <v>1.04124389768156</v>
+        <v>0.9952657014303362</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030199013811208</v>
+        <v>1.039190654154552</v>
       </c>
       <c r="J20">
-        <v>1.031875429659164</v>
+        <v>1.00944723574223</v>
       </c>
       <c r="K20">
-        <v>1.038311121493402</v>
+        <v>1.009742023537174</v>
       </c>
       <c r="L20">
-        <v>1.029413970117703</v>
+        <v>1.0054414409164</v>
       </c>
       <c r="M20">
-        <v>1.044599220220547</v>
+        <v>1.009392311752195</v>
       </c>
       <c r="N20">
-        <v>1.014612922274934</v>
+        <v>1.006957767105465</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024554977910425</v>
+        <v>0.9756426154828416</v>
       </c>
       <c r="D21">
-        <v>1.033917931130867</v>
+        <v>0.9906669647898416</v>
       </c>
       <c r="E21">
-        <v>1.025114187778707</v>
+        <v>0.9869087752807072</v>
       </c>
       <c r="F21">
-        <v>1.040062347602924</v>
+        <v>0.9895785423759028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03008493206379</v>
+        <v>1.0381466217188</v>
       </c>
       <c r="J21">
-        <v>1.031224260887967</v>
+        <v>1.006195227594216</v>
       </c>
       <c r="K21">
-        <v>1.037505835161477</v>
+        <v>1.005827338260719</v>
       </c>
       <c r="L21">
-        <v>1.028735315314358</v>
+        <v>1.002142483125604</v>
       </c>
       <c r="M21">
-        <v>1.043627432599655</v>
+        <v>1.004760079331563</v>
       </c>
       <c r="N21">
-        <v>1.014394210832295</v>
+        <v>1.005855548868834</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023892993779286</v>
+        <v>0.9720843367965648</v>
       </c>
       <c r="D22">
-        <v>1.03327998034149</v>
+        <v>0.9874851519166837</v>
       </c>
       <c r="E22">
-        <v>1.024554801492041</v>
+        <v>0.9841279302288741</v>
       </c>
       <c r="F22">
-        <v>1.03932060503485</v>
+        <v>0.9859263814651452</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030011661615347</v>
+        <v>1.037462993632648</v>
       </c>
       <c r="J22">
-        <v>1.030814627135006</v>
+        <v>1.004100625317911</v>
       </c>
       <c r="K22">
-        <v>1.036999642185377</v>
+        <v>1.003308675048892</v>
       </c>
       <c r="L22">
-        <v>1.028308702701194</v>
+        <v>1.000020512425196</v>
       </c>
       <c r="M22">
-        <v>1.043016935987242</v>
+        <v>1.001781891797413</v>
       </c>
       <c r="N22">
-        <v>1.014256561713878</v>
+        <v>1.005145470736434</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024243883467668</v>
+        <v>0.9739787378416725</v>
       </c>
       <c r="D23">
-        <v>1.033618093983828</v>
+        <v>0.9891784043586742</v>
       </c>
       <c r="E23">
-        <v>1.02485126750195</v>
+        <v>0.9856075700971897</v>
       </c>
       <c r="F23">
-        <v>1.039713707929667</v>
+        <v>0.9878699514152931</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030050649735237</v>
+        <v>1.037828025646106</v>
       </c>
       <c r="J23">
-        <v>1.0310318021158</v>
+        <v>1.005215887214195</v>
       </c>
       <c r="K23">
-        <v>1.03726797271903</v>
+        <v>1.004649469236951</v>
       </c>
       <c r="L23">
-        <v>1.02853484977429</v>
+        <v>1.001150074898665</v>
       </c>
       <c r="M23">
-        <v>1.043340523603286</v>
+        <v>1.003367115018712</v>
       </c>
       <c r="N23">
-        <v>1.014329544941869</v>
+        <v>1.005523560872521</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025626199581268</v>
+        <v>0.9812620052608082</v>
       </c>
       <c r="D24">
-        <v>1.034950897697618</v>
+        <v>0.9957037325845655</v>
       </c>
       <c r="E24">
-        <v>1.026020087740801</v>
+        <v>0.9913145903218678</v>
       </c>
       <c r="F24">
-        <v>1.041263725855315</v>
+        <v>0.9953598053985638</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030200900218223</v>
+        <v>1.039207707004578</v>
       </c>
       <c r="J24">
-        <v>1.031886342827589</v>
+        <v>1.00950093995566</v>
       </c>
       <c r="K24">
-        <v>1.038324624229938</v>
+        <v>1.009806717914367</v>
       </c>
       <c r="L24">
-        <v>1.029425349217712</v>
+        <v>1.005495967830001</v>
       </c>
       <c r="M24">
-        <v>1.044615520852996</v>
+        <v>1.009468901035036</v>
       </c>
       <c r="N24">
-        <v>1.014616586660413</v>
+        <v>1.006975966591626</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02723212484348</v>
+        <v>0.9893791960630427</v>
       </c>
       <c r="D25">
-        <v>1.036500981916222</v>
+        <v>1.003005754882667</v>
       </c>
       <c r="E25">
-        <v>1.027379831028951</v>
+        <v>0.9977100025561206</v>
       </c>
       <c r="F25">
-        <v>1.043067384808477</v>
+        <v>1.003741989457166</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030368523513698</v>
+        <v>1.040694957377804</v>
       </c>
       <c r="J25">
-        <v>1.032877010305226</v>
+        <v>1.014269356519405</v>
       </c>
       <c r="K25">
-        <v>1.039551309841276</v>
+        <v>1.015557588888263</v>
       </c>
       <c r="L25">
-        <v>1.030459059784129</v>
+        <v>1.010343972107148</v>
       </c>
       <c r="M25">
-        <v>1.046097248563448</v>
+        <v>1.016282492268299</v>
       </c>
       <c r="N25">
-        <v>1.014949076125733</v>
+        <v>1.008591457355201</v>
       </c>
     </row>
   </sheetData>
